--- a/Examples/SCADA_reader_sample/inputfile.xlsx
+++ b/Examples/SCADA_reader_sample/inputfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\PhD\Codes\Github\PAL\Examples\SCADA_reader_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53632D73-3D27-422F-8442-3BAF28886A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA0238C-6C7A-4E5F-9315-F8AD11E2553C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30285" yWindow="1275" windowWidth="15510" windowHeight="6300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Folders" sheetId="1" r:id="rId1"/>
@@ -24,13 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="88">
-  <si>
-    <t>VariableName</t>
-  </si>
-  <si>
-    <t>FolderName</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
   <si>
     <t>PLCApps</t>
   </si>
@@ -294,7 +288,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -646,61 +640,61 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="28.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="78.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -716,7 +710,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
@@ -729,111 +723,111 @@
     <col min="9" max="9" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D3" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E3" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F3" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
         <v>29</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D4" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
         <v>40</v>
       </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>42</v>
-      </c>
       <c r="G4" t="b">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -849,7 +843,7 @@
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
@@ -860,87 +854,87 @@
     <col min="7" max="7" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
         <v>47</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>51</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
         <v>55</v>
       </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -953,11 +947,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DF653D-B4E4-489B-9C54-23CC3A2D96F8}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
@@ -972,50 +966,50 @@
     <col min="11" max="11" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
         <v>66</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>68</v>
-      </c>
-      <c r="C2" t="s">
-        <v>70</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -1030,10 +1024,10 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" t="s">
         <v>76</v>
-      </c>
-      <c r="I2" t="s">
-        <v>78</v>
       </c>
       <c r="J2">
         <v>60</v>
@@ -1049,80 +1043,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1BF8B4-6B21-4E4C-B220-1B83112889A9}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
